--- a/results/I3_N5_M2_T45_C150_DepCentral_s4_P3_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepCentral_s4_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>862.9063986272632</v>
+        <v>1589.136186453359</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.00599980354309082</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.16639862726319</v>
+        <v>18.73569081392109</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.328120147957547</v>
+        <v>7.949791707393387</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.328120147957547</v>
+        <v>4.350287346831242</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>280.0400000000001</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>552.7</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,23 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -700,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -744,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -802,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -846,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -868,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -918,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.906517973686384</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>37.11679712152664</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37.93612771406968</v>
+        <v>40.27548355737303</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>35.50084538957422</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.063872285930316</v>
+        <v>17.46902814888774</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41.09348202631362</v>
+        <v>43.45063709696761</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>41.11128125366427</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1026,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1040,13 +1029,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1054,13 +1043,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1068,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1085,12 +1074,138 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1193,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>82.54000000000008</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1204,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>79.94000000000007</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1215,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>78.90000000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1226,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>78.23000000000008</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1237,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>79.31000000000007</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1248,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>159.05</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13">
@@ -1259,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>155.865</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
@@ -1270,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>168.175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15">
@@ -1281,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>164.795</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>157.84</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17">
@@ -1303,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>160.41</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18">
@@ -1314,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>171.595</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19">
@@ -1325,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>161.015</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20">
@@ -1336,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>171.23</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21">
@@ -1347,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>170.045</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22">
@@ -1358,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>104.4149999999993</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23">
@@ -1369,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>113.1949999999993</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
@@ -1380,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>104.0099999999993</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25">
@@ -1391,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>117.3699999999993</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26">
@@ -1402,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>114.0649999999993</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27">
@@ -1413,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>41.93999999999971</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -1424,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>42.87999999999971</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -1435,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>41.35</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
@@ -1446,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>44.15999999999971</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -1457,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -1468,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>159.05</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33">
@@ -1479,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>155.865</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34">
@@ -1490,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>168.175</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35">
@@ -1501,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>164.795</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36">
@@ -1512,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>157.84</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37">
@@ -1523,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>160.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1534,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>171.595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1545,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>161.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1556,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>171.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1567,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>170.045</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1614,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9.050000000000001</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -1625,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.865000000000009</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4">
@@ -1636,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>18.17500000000001</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
@@ -1647,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>14.79500000000002</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6">
@@ -1658,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.840000000000003</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7">
@@ -1669,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1680,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>21.595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1691,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>11.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1702,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>21.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1713,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>20.045</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1760,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>25.455</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1771,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>25.57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1782,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>25.765</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1793,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>26.275</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1804,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>17.295</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1815,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1826,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1837,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1848,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1859,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1980,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>20.545</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1991,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>24.885</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2002,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>29.155</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2013,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>24.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2024,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.45</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2038,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2173,6 +2288,61 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
